--- a/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadKubernetesOperatorPageLocators.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/DownloadKubernetesOperatorPageLocators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/Mobile-Web-Automation/src/main/resources/CompilerDictionary/LocatorDictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E975B5A-476C-2449-8301-5CB65A92762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4619785-F6BE-5749-AA7E-A46E949EEBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16340" yWindow="820" windowWidth="12800" windowHeight="17440" xr2:uid="{3163222A-946B-CD49-BD5A-CA995E4D33C7}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{3163222A-946B-CD49-BD5A-CA995E4D33C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Sno</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>div[data-post-title='Autonomous Operator'] h2.tab-desc__title</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9675438B-8982-4340-A452-4B903C3794D5}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +472,7 @@
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +482,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,8 +496,11 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -498,8 +510,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -509,8 +524,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -520,8 +538,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -530,6 +551,9 @@
       </c>
       <c r="C6" t="s">
         <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
